--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Desktop/trial-cv/_cv_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FCAD31-8E8F-9D45-AD7A-673F20F9AD50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8B8C28-756A-5144-98A3-3D613EDA9697}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="33020" windowHeight="17340" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
+    <workbookView xWindow="28260" yWindow="4820" windowWidth="33020" windowHeight="17340" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="322">
   <si>
     <t>authors</t>
   </si>
@@ -646,9 +646,6 @@
   </si>
   <si>
     <t>Exploring teacher and school variance in students’ within-year reading and mathematics growth</t>
-  </si>
-  <si>
-    <t>https://www.tandfonline.com/doi/abs/10.1080/09243453.2019.1618349?af=R&amp;journalCode=nses20</t>
   </si>
   <si>
     <t>full_paper_link</t>
@@ -1023,6 +1020,15 @@
   </si>
   <si>
     <t>https://github.com/data-edu/tidyLPA/commits?author=datalorax</t>
+  </si>
+  <si>
+    <t>https://edarxiv.org/hc2dw/</t>
+  </si>
+  <si>
+    <t>510-530</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/full/10.1080/09243453.2019.1618349</t>
   </si>
 </sst>
 </file>
@@ -1431,9 +1437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
   <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R69" sqref="R69"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1497,19 +1503,19 @@
         <v>112</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -1568,14 +1574,18 @@
       <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2">
+        <v>30</v>
+      </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>207</v>
+        <v>321</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1612,7 +1622,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1649,7 +1659,7 @@
         <v>12</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1690,7 +1700,7 @@
         <v>21</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1740,7 +1750,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S7" s="2"/>
     </row>
@@ -1774,7 +1784,7 @@
         <v>33</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1815,7 +1825,7 @@
         <v>37</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1824,7 +1834,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S9" s="2"/>
     </row>
@@ -1865,7 +1875,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S10" s="2"/>
     </row>
@@ -1899,7 +1909,7 @@
         <v>48</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1940,7 +1950,7 @@
         <v>52</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1981,7 +1991,7 @@
         <v>55</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1990,7 +2000,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S13" s="2"/>
     </row>
@@ -2024,7 +2034,7 @@
         <v>59</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2033,7 +2043,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S14" s="2"/>
     </row>
@@ -2072,7 +2082,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S15" s="2"/>
     </row>
@@ -2106,7 +2116,7 @@
         <v>66</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2156,7 +2166,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S17" s="2"/>
     </row>
@@ -2196,7 +2206,7 @@
         <v>83</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2229,7 +2239,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2253,7 +2263,9 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="L20" s="2" t="s">
         <v>95</v>
       </c>
@@ -2265,7 +2277,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S20" s="2"/>
     </row>
@@ -2283,7 +2295,7 @@
         <v>2011</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2346,7 +2358,7 @@
       </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T22" t="s">
         <v>110</v>
@@ -2393,7 +2405,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2477,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S25" s="2"/>
     </row>
@@ -3353,7 +3365,7 @@
         <v>176</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3392,7 +3404,7 @@
         <v>176</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3458,19 +3470,19 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B51" s="2">
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D51" s="2">
         <v>2014</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3480,20 +3492,20 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S51" s="2"/>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B52" s="2">
         <v>2</v>
@@ -3505,7 +3517,7 @@
         <v>2013</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3515,32 +3527,32 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S52" s="2"/>
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B53" s="2">
         <v>3</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D53" s="2">
         <v>2012</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3550,32 +3562,32 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S53" s="2"/>
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B54" s="2">
         <v>4</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D54" s="2">
         <v>2012</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -3585,32 +3597,32 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S54" s="2"/>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B55" s="2">
         <v>5</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D55" s="2">
         <v>2010</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -3620,32 +3632,32 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S55" s="2"/>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B56" s="2">
         <v>6</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D56" s="2">
         <v>2010</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -3655,32 +3667,32 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S56" s="2"/>
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B57" s="2">
         <v>7</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D57" s="2">
         <v>2010</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -3690,32 +3702,32 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S57" s="2"/>
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B58" s="2">
         <v>8</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D58" s="2">
         <v>2010</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -3725,32 +3737,32 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S58" s="2"/>
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B59" s="2">
         <v>9</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D59" s="2">
         <v>2010</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -3760,32 +3772,32 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S59" s="2"/>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B60" s="2">
         <v>10</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D60" s="2">
         <v>2010</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -3795,20 +3807,20 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S60" s="2"/>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B61" s="2">
         <v>1</v>
@@ -3817,27 +3829,27 @@
         <v>8</v>
       </c>
       <c r="D61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="N61" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q61" t="b">
         <v>0</v>
       </c>
       <c r="T61" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B62" s="2">
         <v>2</v>
@@ -3846,13 +3858,13 @@
         <v>8</v>
       </c>
       <c r="D62" t="s">
+        <v>268</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="N62" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P62" t="s">
         <v>117</v>
@@ -3861,12 +3873,12 @@
         <v>1</v>
       </c>
       <c r="T62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B63" s="2">
         <v>3</v>
@@ -3878,24 +3890,24 @@
         <v>121</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="N63" t="s">
         <v>275</v>
       </c>
-      <c r="N63" t="s">
-        <v>276</v>
-      </c>
       <c r="P63" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q63" t="b">
         <v>0</v>
       </c>
       <c r="T63" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B64" s="2">
         <v>4</v>
@@ -3904,13 +3916,13 @@
         <v>8</v>
       </c>
       <c r="D64" t="s">
+        <v>277</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="N64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P64" t="s">
         <v>117</v>
@@ -3919,35 +3931,35 @@
         <v>1</v>
       </c>
       <c r="T64" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:22" s="10" customFormat="1">
       <c r="A65" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B65" s="2">
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D65" s="10">
         <v>2019</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S65" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B66" s="2">
         <v>2</v>
@@ -3959,18 +3971,18 @@
         <v>2018</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B67" s="2">
         <v>3</v>
@@ -3982,21 +3994,21 @@
         <v>2018</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S67" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V67" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B68" s="2">
         <v>4</v>
@@ -4008,18 +4020,18 @@
         <v>2016</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="S68" t="s">
         <v>297</v>
       </c>
-      <c r="S68" t="s">
-        <v>298</v>
-      </c>
       <c r="U68" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B69" s="2">
         <v>5</v>
@@ -4031,76 +4043,76 @@
         <v>2015</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="S69" t="s">
         <v>299</v>
       </c>
-      <c r="S69" t="s">
-        <v>300</v>
-      </c>
       <c r="U69" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="B70" s="2">
-        <v>1</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="D70">
         <v>2018</v>
       </c>
       <c r="E70" t="s">
+        <v>302</v>
+      </c>
+      <c r="R70" t="s">
+        <v>317</v>
+      </c>
+      <c r="S70" t="s">
         <v>303</v>
       </c>
-      <c r="R70" t="s">
-        <v>318</v>
-      </c>
-      <c r="S70" t="s">
+      <c r="U70" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="U70" s="1" t="s">
+      <c r="V70" t="s">
         <v>305</v>
-      </c>
-      <c r="V70" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B71" s="2">
         <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D71">
         <v>2018</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="R71" t="s">
+        <v>318</v>
+      </c>
+      <c r="S71" t="s">
         <v>308</v>
       </c>
-      <c r="R71" t="s">
-        <v>319</v>
-      </c>
-      <c r="S71" t="s">
+      <c r="U71" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="U71" s="1" t="s">
+      <c r="V71" t="s">
         <v>310</v>
-      </c>
-      <c r="V71" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
@@ -4112,18 +4124,18 @@
         <v>2019</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R72" t="s">
         <v>313</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>314</v>
-      </c>
-      <c r="S72" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B73" s="2">
         <v>2</v>
@@ -4135,10 +4147,10 @@
         <v>2019</v>
       </c>
       <c r="E73" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="R73" t="s">
         <v>316</v>
-      </c>
-      <c r="R73" t="s">
-        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8B8C28-756A-5144-98A3-3D613EDA9697}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528A8150-5839-FE48-A582-9B3A0A7C78EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28260" yWindow="4820" windowWidth="33020" windowHeight="17340" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="326">
   <si>
     <t>authors</t>
   </si>
@@ -1029,6 +1029,18 @@
   </si>
   <si>
     <t>https://www.tandfonline.com/doi/full/10.1080/09243453.2019.1618349</t>
+  </si>
+  <si>
+    <t>Barrett, T. S., &amp; Anderson, D.</t>
+  </si>
+  <si>
+    <t>biosketchr: Rmarkdown for biosketches</t>
+  </si>
+  <si>
+    <t>https://github.com/TysonStanley/biosketchr</t>
+  </si>
+  <si>
+    <t>0.1.4</t>
   </si>
 </sst>
 </file>
@@ -1435,11 +1447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V65" sqref="V65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3934,47 +3946,47 @@
         <v>279</v>
       </c>
     </row>
-    <row r="65" spans="1:22" s="10" customFormat="1">
+    <row r="65" spans="1:22">
       <c r="A65" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B65" s="2">
         <v>1</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D65" s="10">
+      <c r="C65" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D65">
         <v>2019</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="S65" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22">
+        <v>323</v>
+      </c>
+      <c r="S65" t="s">
+        <v>324</v>
+      </c>
+      <c r="U65" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" s="10" customFormat="1">
       <c r="A66" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B66" s="2">
         <v>2</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66">
-        <v>2018</v>
+      <c r="C66" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D66" s="10">
+        <v>2019</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="S66" t="s">
-        <v>289</v>
+        <v>284</v>
+      </c>
+      <c r="S66" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="U66" s="1" t="s">
         <v>286</v>
@@ -3994,16 +4006,13 @@
         <v>2018</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S67" t="s">
-        <v>293</v>
-      </c>
-      <c r="U67" t="s">
-        <v>292</v>
-      </c>
-      <c r="V67" t="s">
-        <v>291</v>
+        <v>289</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -4017,16 +4026,19 @@
         <v>8</v>
       </c>
       <c r="D68">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="S68" t="s">
-        <v>297</v>
-      </c>
-      <c r="U68" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
+      </c>
+      <c r="U68" t="s">
+        <v>292</v>
+      </c>
+      <c r="V68" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -4040,13 +4052,13 @@
         <v>8</v>
       </c>
       <c r="D69">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="S69" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="U69" s="1" t="s">
         <v>286</v>
@@ -4054,31 +4066,25 @@
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="2" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="B70" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>301</v>
+        <v>8</v>
       </c>
       <c r="D70">
-        <v>2018</v>
-      </c>
-      <c r="E70" t="s">
-        <v>302</v>
-      </c>
-      <c r="R70" t="s">
-        <v>317</v>
+        <v>2015</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="S70" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="V70" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -4086,51 +4092,57 @@
         <v>300</v>
       </c>
       <c r="B71" s="2">
-        <v>2</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>306</v>
+        <v>1</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="D71">
         <v>2018</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>307</v>
+      <c r="E71" t="s">
+        <v>302</v>
       </c>
       <c r="R71" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S71" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="V71" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B72" s="2">
-        <v>1</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="D72">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="R72" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="S72" t="s">
-        <v>314</v>
+        <v>308</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="V72" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -4138,7 +4150,7 @@
         <v>311</v>
       </c>
       <c r="B73" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>8</v>
@@ -4146,10 +4158,33 @@
       <c r="D73">
         <v>2019</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R73" t="s">
+        <v>313</v>
+      </c>
+      <c r="S73" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74">
+        <v>2019</v>
+      </c>
+      <c r="E74" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="R73" t="s">
+      <c r="R74" t="s">
         <v>316</v>
       </c>
     </row>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528A8150-5839-FE48-A582-9B3A0A7C78EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2905A636-8755-4445-860F-DE02E0474DD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28260" yWindow="4820" windowWidth="33020" windowHeight="17340" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="321">
   <si>
     <t>authors</t>
   </si>
@@ -141,9 +141,6 @@
     <t>10.1080/08957347.2017.1316277</t>
   </si>
   <si>
-    <t>Rosenberg, J, Beymer, P. N., Anderson, D., and Schmidt, J. A.</t>
-  </si>
-  <si>
     <t>Fien, H., Anderson, D., Nelson, N. J., Kennedy, P., Baker, S. K., &amp; Stoolmiller, M.</t>
   </si>
   <si>
@@ -273,15 +270,6 @@
     <t>in-review</t>
   </si>
   <si>
-    <t>*under review*</t>
-  </si>
-  <si>
-    <t>https://edarxiv.org/saetu/</t>
-  </si>
-  <si>
-    <t>10.35542/osf.io/saetu</t>
-  </si>
-  <si>
     <t>*revise &amp; resubmit*</t>
   </si>
   <si>
@@ -333,9 +321,6 @@
     <t>Evaluating content-related validity evidence using a text-based, machine learning procedure</t>
   </si>
   <si>
-    <t>Between-School Variability in Achievement Gaps</t>
-  </si>
-  <si>
     <t>book</t>
   </si>
   <si>
@@ -703,9 +688,6 @@
   </si>
   <si>
     <t>git_repo</t>
-  </si>
-  <si>
-    <t>https://github.com/datalorax/ach-gap-variability</t>
   </si>
   <si>
     <t>https://github.com/datalorax/text-analysis-content-validity</t>
@@ -1041,6 +1023,9 @@
   </si>
   <si>
     <t>0.1.4</t>
+  </si>
+  <si>
+    <t>Rosenberg, J, Beymer, P. N., Anderson, D., van Lissa, C.J., and Schmidt, J. A.</t>
   </si>
 </sst>
 </file>
@@ -1447,11 +1432,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V65" sqref="V65"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1464,7 +1449,7 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>24</v>
@@ -1497,42 +1482,42 @@
         <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1544,7 +1529,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
@@ -1553,10 +1538,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1569,7 +1554,7 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -1581,7 +1566,7 @@
         <v>2019</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -1591,13 +1576,13 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1610,7 +1595,7 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -1634,7 +1619,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1647,7 +1632,7 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -1659,7 +1644,7 @@
         <v>2019</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>26</v>
@@ -1671,7 +1656,7 @@
         <v>12</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1684,7 +1669,7 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
@@ -1712,7 +1697,7 @@
         <v>21</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1725,13 +1710,13 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>320</v>
       </c>
       <c r="D7" s="2">
         <v>2018</v>
@@ -1762,25 +1747,25 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2">
         <v>2018</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>31</v>
@@ -1796,7 +1781,7 @@
         <v>33</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1809,13 +1794,13 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2">
         <v>2017</v>
@@ -1837,7 +1822,7 @@
         <v>37</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1846,38 +1831,38 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2">
         <v>2017</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="G10" s="2">
         <v>2</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1887,41 +1872,41 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2">
         <v>2016</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="G11" s="2">
         <v>38</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="K11" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1934,35 +1919,35 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2">
         <v>2016</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="G12" s="2">
         <v>49</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="K12" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1975,35 +1960,35 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="2">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2">
         <v>2015</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="2">
         <v>49</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="K13" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2012,41 +1997,41 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="2">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2">
         <v>2015</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="G14" s="2">
         <v>34</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="K14" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2055,35 +2040,35 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="2">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2">
         <v>2013</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="G15" s="2">
         <v>4</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2094,41 +2079,41 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S15" s="2"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2">
         <v>2012</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="G16" s="2">
         <v>25</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="K16" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2141,35 +2126,35 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="2">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2">
         <v>2011</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="G17" s="2">
         <v>16</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="K17" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2178,180 +2163,187 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S17" s="2"/>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="R18" s="2"/>
       <c r="S18" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2" t="s">
-        <v>227</v>
-      </c>
+      <c r="R19" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>177</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2011</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>94</v>
+        <v>247</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="2" t="s">
-        <v>319</v>
-      </c>
+      <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="2" t="s">
-        <v>281</v>
-      </c>
+      <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2011</v>
+        <v>178</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>253</v>
+        <v>101</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+      <c r="K21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q21" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
+      <c r="S21" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="T21" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="2" t="s">
         <v>110</v>
       </c>
       <c r="L22" s="2"/>
@@ -2360,37 +2352,35 @@
         <v>111</v>
       </c>
       <c r="O22" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="2" t="b">
         <v>1</v>
       </c>
       <c r="R22" s="2"/>
-      <c r="S22" s="2" t="s">
-        <v>227</v>
-      </c>
+      <c r="S22" s="2"/>
       <c r="T22" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B23" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2398,18 +2388,18 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="O23" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="2" t="b">
         <v>1</v>
@@ -2417,65 +2407,62 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" t="s">
-        <v>280</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="O24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="P24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R24" s="2"/>
+      <c r="R24" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="S24" s="2"/>
-      <c r="T24" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>122</v>
@@ -2489,37 +2476,35 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="O25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="Q25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>282</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R25" s="2"/>
       <c r="S25" s="2"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B26" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2530,13 +2515,13 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="O26" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Q26" s="2" t="b">
         <v>1</v>
@@ -2546,19 +2531,19 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B27" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2569,7 +2554,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="O27" s="2" t="b">
         <v>0</v>
@@ -2585,19 +2570,19 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B28" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2608,35 +2593,35 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q28" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q28" s="2" t="b">
-        <v>1</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B29" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2647,13 +2632,13 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O29" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Q29" s="2" t="b">
         <v>0</v>
@@ -2663,19 +2648,19 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B30" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>191</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2686,13 +2671,13 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O30" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q30" s="2" t="b">
         <v>0</v>
@@ -2702,19 +2687,19 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B31" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2725,35 +2710,35 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="O31" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="Q31" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B32" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2764,13 +2749,13 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="O32" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Q32" s="2" t="b">
         <v>1</v>
@@ -2780,19 +2765,19 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B33" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2803,13 +2788,13 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="O33" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Q33" s="2" t="b">
         <v>1</v>
@@ -2819,19 +2804,19 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B34" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>187</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2842,13 +2827,13 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="O34" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Q34" s="2" t="b">
         <v>1</v>
@@ -2858,19 +2843,19 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B35" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2881,13 +2866,13 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="O35" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Q35" s="2" t="b">
         <v>1</v>
@@ -2897,19 +2882,19 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B36" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2920,13 +2905,13 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="O36" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Q36" s="2" t="b">
         <v>1</v>
@@ -2936,19 +2921,19 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B37" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2959,13 +2944,13 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="O37" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q37" s="2" t="b">
         <v>1</v>
@@ -2975,19 +2960,19 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B38" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2998,13 +2983,13 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="O38" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q38" s="2" t="b">
         <v>1</v>
@@ -3014,19 +2999,19 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B39" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -3037,13 +3022,13 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="O39" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q39" s="2" t="b">
         <v>1</v>
@@ -3053,19 +3038,19 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B40" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -3076,13 +3061,13 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="O40" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q40" s="2" t="b">
         <v>1</v>
@@ -3092,19 +3077,19 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B41" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -3115,13 +3100,13 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="O41" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q41" s="2" t="b">
         <v>1</v>
@@ -3131,19 +3116,19 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B42" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3154,35 +3139,35 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="O42" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q42" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3193,35 +3178,35 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O43" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q43" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3232,35 +3217,35 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="O44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q44" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q44" s="2" t="b">
-        <v>1</v>
       </c>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3271,35 +3256,35 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="O45" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="Q45" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3310,13 +3295,13 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="O46" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Q46" s="2" t="b">
         <v>1</v>
@@ -3324,21 +3309,21 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" ht="18">
       <c r="A47" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3349,13 +3334,13 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="O47" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q47" s="2" t="b">
         <v>1</v>
@@ -3365,19 +3350,19 @@
     </row>
     <row r="48" spans="1:19" ht="18">
       <c r="A48" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3388,13 +3373,13 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="O48" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q48" s="2" t="b">
         <v>1</v>
@@ -3402,21 +3387,21 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:20" ht="18">
+    <row r="49" spans="1:21">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3427,13 +3412,13 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="O49" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q49" s="2" t="b">
         <v>1</v>
@@ -3441,21 +3426,21 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:21">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="B50" s="2">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>176</v>
+        <v>244</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2014</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3464,37 +3449,33 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="O50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R50" s="2"/>
+      <c r="M50" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="S50" s="2"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:21">
       <c r="A51" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B51" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3504,32 +3485,32 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="S51" s="2"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:21">
       <c r="A52" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B52" s="2">
-        <v>2</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="D52" s="2">
-        <v>2013</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>233</v>
+        <v>2012</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3538,33 +3519,33 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="2" t="s">
-        <v>232</v>
+      <c r="M52" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="S52" s="2"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:21">
       <c r="A53" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B53" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D53" s="2">
         <v>2012</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3574,32 +3555,32 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="S53" s="2"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:21">
       <c r="A54" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B54" s="2">
-        <v>4</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>248</v>
+        <v>5</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="D54" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>255</v>
+        <v>2010</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -3609,32 +3590,32 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="S54" s="2"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:21">
       <c r="A55" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B55" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D55" s="2">
         <v>2010</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -3644,7 +3625,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -3655,21 +3636,21 @@
       </c>
       <c r="S55" s="2"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:21">
       <c r="A56" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B56" s="2">
-        <v>6</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>252</v>
+        <v>7</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="D56" s="2">
         <v>2010</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>256</v>
+      <c r="E56" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -3679,32 +3660,32 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="S56" s="2"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:21">
       <c r="A57" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B57" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D57" s="2">
         <v>2010</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -3714,32 +3695,32 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="S57" s="2"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:21">
       <c r="A58" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B58" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D58" s="2">
         <v>2010</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -3749,32 +3730,32 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="S58" s="2"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:21">
       <c r="A59" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B59" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D59" s="2">
         <v>2010</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -3784,220 +3765,208 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="S59" s="2"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:21">
       <c r="A60" s="2" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="B60" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D60" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="S60" s="2"/>
-    </row>
-    <row r="61" spans="1:20">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>258</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N60" t="s">
+        <v>264</v>
+      </c>
+      <c r="P60" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q60" t="b">
+        <v>0</v>
+      </c>
+      <c r="T60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B61" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N61" t="s">
         <v>265</v>
       </c>
-      <c r="N61" t="s">
-        <v>270</v>
-      </c>
       <c r="P61" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="Q61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:21">
       <c r="A62" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B62" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D62" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="N62" t="s">
         <v>269</v>
       </c>
-      <c r="N62" t="s">
-        <v>271</v>
-      </c>
       <c r="P62" t="s">
-        <v>117</v>
+        <v>266</v>
       </c>
       <c r="Q62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B63" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>121</v>
+        <v>271</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N63" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="P63" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="Q63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" s="2" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B64" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C64" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D64">
+        <v>2019</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="S64" t="s">
+        <v>318</v>
+      </c>
+      <c r="U64" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" s="10" customFormat="1">
+      <c r="A65" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D65" s="10">
+        <v>2019</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="S65" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B66" s="2">
+        <v>3</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D64" t="s">
-        <v>277</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="N64" t="s">
-        <v>271</v>
-      </c>
-      <c r="P64" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q64" t="b">
-        <v>1</v>
-      </c>
-      <c r="T64" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22">
-      <c r="A65" s="2" t="s">
+      <c r="D66">
+        <v>2018</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="S66" t="s">
         <v>283</v>
       </c>
-      <c r="B65" s="2">
-        <v>1</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D65">
-        <v>2019</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="S65" t="s">
-        <v>324</v>
-      </c>
-      <c r="U65" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" s="10" customFormat="1">
-      <c r="A66" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B66" s="2">
-        <v>2</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D66" s="10">
-        <v>2019</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="S66" s="10" t="s">
-        <v>287</v>
-      </c>
       <c r="U66" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B67" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>8</v>
@@ -4006,151 +3975,151 @@
         <v>2018</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="S67" t="s">
-        <v>289</v>
-      </c>
-      <c r="U67" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="U67" t="s">
         <v>286</v>
+      </c>
+      <c r="V67" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B68" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D68">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="S68" t="s">
-        <v>293</v>
-      </c>
-      <c r="U68" t="s">
-        <v>292</v>
-      </c>
-      <c r="V68" t="s">
         <v>291</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B69" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D69">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="S69" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="2" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B70" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>8</v>
+        <v>295</v>
       </c>
       <c r="D70">
-        <v>2015</v>
-      </c>
-      <c r="E70" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E70" t="s">
+        <v>296</v>
+      </c>
+      <c r="R70" t="s">
+        <v>311</v>
+      </c>
+      <c r="S70" t="s">
+        <v>297</v>
+      </c>
+      <c r="U70" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="S70" t="s">
+      <c r="V70" t="s">
         <v>299</v>
-      </c>
-      <c r="U70" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B71" s="2">
-        <v>1</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="D71">
         <v>2018</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="R71" t="s">
+        <v>312</v>
+      </c>
+      <c r="S71" t="s">
         <v>302</v>
       </c>
-      <c r="R71" t="s">
-        <v>317</v>
-      </c>
-      <c r="S71" t="s">
+      <c r="U71" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="U71" s="1" t="s">
+      <c r="V71" t="s">
         <v>304</v>
-      </c>
-      <c r="V71" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B72" s="2">
-        <v>2</v>
-      </c>
-      <c r="C72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72">
+        <v>2019</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D72">
-        <v>2018</v>
-      </c>
-      <c r="E72" s="1" t="s">
+      <c r="R72" t="s">
         <v>307</v>
-      </c>
-      <c r="R72" t="s">
-        <v>318</v>
       </c>
       <c r="S72" t="s">
         <v>308</v>
       </c>
-      <c r="U72" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="V72" t="s">
-        <v>310</v>
-      </c>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B73" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>8</v>
@@ -4158,34 +4127,11 @@
       <c r="D73">
         <v>2019</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>312</v>
+      <c r="E73" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="R73" t="s">
-        <v>313</v>
-      </c>
-      <c r="S73" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22">
-      <c r="A74" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B74" s="2">
-        <v>2</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74">
-        <v>2019</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="R74" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2905A636-8755-4445-860F-DE02E0474DD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC24F077-D1E9-2B4E-9CA6-02DE7A2E03FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28260" yWindow="4820" windowWidth="33020" windowHeight="17340" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
+    <workbookView xWindow="580" yWindow="1980" windowWidth="33020" windowHeight="17340" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="319">
   <si>
     <t>authors</t>
   </si>
@@ -265,12 +265,6 @@
   </si>
   <si>
     <t>prpa</t>
-  </si>
-  <si>
-    <t>in-review</t>
-  </si>
-  <si>
-    <t>*revise &amp; resubmit*</t>
   </si>
   <si>
     <t>Early adversity and sexual risk in adolescence: externalizing behaviors as a mediator</t>
@@ -1436,7 +1430,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1482,37 +1476,37 @@
         <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -1523,26 +1517,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>82</v>
+      <c r="E2" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1550,7 +1540,9 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
@@ -1560,29 +1552,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2">
         <v>2019</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>201</v>
+      <c r="E3" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2">
-        <v>30</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>27</v>
+      <c r="I3" s="2"/>
+      <c r="J3" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>315</v>
+        <v>83</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1601,25 +1589,29 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>2019</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="G4" s="2">
+        <v>30</v>
+      </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="J4" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>203</v>
+        <v>313</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1638,25 +1630,25 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>2019</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1675,29 +1667,25 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2">
         <v>2019</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2">
-        <v>42</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1716,39 +1704,37 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>320</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>30</v>
-      </c>
-      <c r="I7" s="2">
-        <v>978</v>
+        <v>42</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="s">
-        <v>206</v>
-      </c>
+      <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:22">
@@ -1759,37 +1745,39 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>318</v>
       </c>
       <c r="D8" s="2">
         <v>2018</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2">
-        <v>33</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2">
+        <v>978</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>207</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="R8" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:22">
@@ -1800,29 +1788,29 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1830,9 +1818,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:22">
@@ -1843,28 +1829,30 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2">
         <v>2017</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1872,7 +1860,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="S10" s="2"/>
     </row>
@@ -1884,37 +1872,37 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="I11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="R11" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:22">
@@ -1925,29 +1913,29 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2">
         <v>2016</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G12" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1966,13 +1954,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>49</v>
@@ -1981,14 +1969,14 @@
         <v>49</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="3" t="s">
-        <v>53</v>
+      <c r="I13" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1996,9 +1984,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:22">
@@ -2009,29 +1995,29 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2">
         <v>2015</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G14" s="2">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
-        <v>57</v>
+      <c r="I14" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2040,7 +2026,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="S14" s="2"/>
     </row>
@@ -2052,26 +2038,30 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G15" s="2">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2079,7 +2069,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="S15" s="2"/>
     </row>
@@ -2091,37 +2081,35 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G16" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>218</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="R16" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="S16" s="2"/>
     </row>
     <row r="17" spans="1:20">
@@ -2132,29 +2120,29 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G17" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2162,59 +2150,67 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="2" t="s">
-        <v>219</v>
-      </c>
+      <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2011</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="2">
+        <v>16</v>
+      </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="R18" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="S18" s="2"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2222,52 +2218,52 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D20" s="2">
         <v>2011</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2278,19 +2274,19 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2298,45 +2294,45 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O21" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="2" t="b">
         <v>1</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="T21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B22" s="2">
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2344,18 +2340,18 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O22" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q22" s="2" t="b">
         <v>1</v>
@@ -2363,24 +2359,24 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B23" s="2">
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2388,18 +2384,18 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O23" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="2" t="b">
         <v>1</v>
@@ -2407,24 +2403,24 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B24" s="2">
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2435,37 +2431,37 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O24" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q24" s="2" t="b">
         <v>0</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="S24" s="2"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B25" s="2">
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2476,13 +2472,13 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O25" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q25" s="2" t="b">
         <v>1</v>
@@ -2492,19 +2488,19 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B26" s="2">
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2515,13 +2511,13 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O26" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="2" t="b">
         <v>1</v>
@@ -2531,19 +2527,19 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B27" s="2">
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2554,13 +2550,13 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O27" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q27" s="2" t="b">
         <v>1</v>
@@ -2570,19 +2566,19 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B28" s="2">
         <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2593,13 +2589,13 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O28" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q28" s="2" t="b">
         <v>0</v>
@@ -2609,19 +2605,19 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B29" s="2">
         <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2632,13 +2628,13 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O29" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q29" s="2" t="b">
         <v>0</v>
@@ -2648,7 +2644,7 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B30" s="2">
         <v>10</v>
@@ -2657,10 +2653,10 @@
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2671,13 +2667,13 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O30" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q30" s="2" t="b">
         <v>0</v>
@@ -2687,19 +2683,19 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B31" s="2">
         <v>11</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2710,13 +2706,13 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O31" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q31" s="2" t="b">
         <v>1</v>
@@ -2726,19 +2722,19 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B32" s="2">
         <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2749,13 +2745,13 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O32" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q32" s="2" t="b">
         <v>1</v>
@@ -2765,7 +2761,7 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B33" s="2">
         <v>13</v>
@@ -2774,10 +2770,10 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2788,13 +2784,13 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O33" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q33" s="2" t="b">
         <v>1</v>
@@ -2804,19 +2800,19 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B34" s="2">
         <v>14</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2827,13 +2823,13 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O34" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q34" s="2" t="b">
         <v>1</v>
@@ -2843,19 +2839,19 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B35" s="2">
         <v>15</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2866,13 +2862,13 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O35" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q35" s="2" t="b">
         <v>1</v>
@@ -2882,19 +2878,19 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B36" s="2">
         <v>16</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2905,13 +2901,13 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O36" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q36" s="2" t="b">
         <v>1</v>
@@ -2921,19 +2917,19 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B37" s="2">
         <v>17</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2944,13 +2940,13 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O37" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q37" s="2" t="b">
         <v>1</v>
@@ -2960,19 +2956,19 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38" s="2">
         <v>18</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2983,13 +2979,13 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O38" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q38" s="2" t="b">
         <v>1</v>
@@ -2999,19 +2995,19 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B39" s="2">
         <v>19</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -3022,13 +3018,13 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O39" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q39" s="2" t="b">
         <v>1</v>
@@ -3038,19 +3034,19 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B40" s="2">
         <v>20</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -3061,13 +3057,13 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O40" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q40" s="2" t="b">
         <v>1</v>
@@ -3077,19 +3073,19 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B41" s="2">
         <v>21</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -3100,13 +3096,13 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q41" s="2" t="b">
         <v>1</v>
@@ -3116,19 +3112,19 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B42" s="2">
         <v>22</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3139,13 +3135,13 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O42" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q42" s="2" t="b">
         <v>0</v>
@@ -3155,7 +3151,7 @@
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2">
         <v>23</v>
@@ -3164,10 +3160,10 @@
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3178,13 +3174,13 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O43" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q43" s="2" t="b">
         <v>1</v>
@@ -3194,19 +3190,19 @@
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2">
         <v>24</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3217,13 +3213,13 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O44" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q44" s="2" t="b">
         <v>0</v>
@@ -3233,19 +3229,19 @@
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2">
         <v>25</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3256,13 +3252,13 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O45" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q45" s="2" t="b">
         <v>1</v>
@@ -3272,19 +3268,19 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2">
         <v>26</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3295,13 +3291,13 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O46" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q46" s="2" t="b">
         <v>1</v>
@@ -3311,19 +3307,19 @@
     </row>
     <row r="47" spans="1:19" ht="18">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2">
         <v>27</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3334,13 +3330,13 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O47" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q47" s="2" t="b">
         <v>1</v>
@@ -3350,19 +3346,19 @@
     </row>
     <row r="48" spans="1:19" ht="18">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2">
         <v>28</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3373,13 +3369,13 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O48" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q48" s="2" t="b">
         <v>1</v>
@@ -3389,7 +3385,7 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2">
         <v>29</v>
@@ -3398,10 +3394,10 @@
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3412,13 +3408,13 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O49" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q49" s="2" t="b">
         <v>1</v>
@@ -3428,19 +3424,19 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D50" s="2">
         <v>2014</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3450,20 +3446,20 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S50" s="2"/>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B51" s="2">
         <v>2</v>
@@ -3475,7 +3471,7 @@
         <v>2013</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3485,32 +3481,32 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="S51" s="2"/>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B52" s="2">
         <v>3</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D52" s="2">
         <v>2012</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3520,32 +3516,32 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="S52" s="2"/>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B53" s="2">
         <v>4</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D53" s="2">
         <v>2012</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3555,32 +3551,32 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="S53" s="2"/>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B54" s="2">
         <v>5</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D54" s="2">
         <v>2010</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -3590,32 +3586,32 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S54" s="2"/>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B55" s="2">
         <v>6</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D55" s="2">
         <v>2010</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -3625,32 +3621,32 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S55" s="2"/>
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B56" s="2">
         <v>7</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D56" s="2">
         <v>2010</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -3660,32 +3656,32 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S56" s="2"/>
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B57" s="2">
         <v>8</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D57" s="2">
         <v>2010</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -3695,32 +3691,32 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S57" s="2"/>
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B58" s="2">
         <v>9</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D58" s="2">
         <v>2010</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -3730,32 +3726,32 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S58" s="2"/>
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B59" s="2">
         <v>10</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D59" s="2">
         <v>2010</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -3765,20 +3761,20 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="S59" s="2"/>
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
@@ -3787,27 +3783,27 @@
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N60" t="s">
+        <v>262</v>
+      </c>
+      <c r="P60" t="s">
         <v>264</v>
-      </c>
-      <c r="P60" t="s">
-        <v>266</v>
       </c>
       <c r="Q60" t="b">
         <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B61" s="2">
         <v>2</v>
@@ -3816,27 +3812,27 @@
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N61" t="s">
         <v>263</v>
       </c>
-      <c r="N61" t="s">
+      <c r="P61" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q61" t="b">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s">
         <v>265</v>
-      </c>
-      <c r="P61" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q61" t="b">
-        <v>1</v>
-      </c>
-      <c r="T61" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B62" s="2">
         <v>3</v>
@@ -3845,27 +3841,27 @@
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N62" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="P62" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q62" t="b">
         <v>0</v>
       </c>
       <c r="T62" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B63" s="2">
         <v>4</v>
@@ -3874,73 +3870,73 @@
         <v>8</v>
       </c>
       <c r="D63" t="s">
+        <v>269</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="N63" t="s">
+        <v>263</v>
+      </c>
+      <c r="P63" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q63" t="b">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s">
         <v>271</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="N63" t="s">
-        <v>265</v>
-      </c>
-      <c r="P63" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q63" t="b">
-        <v>1</v>
-      </c>
-      <c r="T63" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D64">
         <v>2019</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="S64" t="s">
+        <v>316</v>
+      </c>
+      <c r="U64" t="s">
         <v>317</v>
-      </c>
-      <c r="S64" t="s">
-        <v>318</v>
-      </c>
-      <c r="U64" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:22" s="10" customFormat="1">
       <c r="A65" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B65" s="2">
         <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D65" s="10">
         <v>2019</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="S65" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="U65" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="S65" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B66" s="2">
         <v>3</v>
@@ -3952,18 +3948,18 @@
         <v>2018</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S66" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B67" s="2">
         <v>4</v>
@@ -3975,21 +3971,21 @@
         <v>2018</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S67" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="U67" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V67" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B68" s="2">
         <v>5</v>
@@ -4001,18 +3997,18 @@
         <v>2016</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S68" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B69" s="2">
         <v>6</v>
@@ -4024,76 +4020,76 @@
         <v>2015</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S69" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B70" s="2">
         <v>1</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D70">
         <v>2018</v>
       </c>
       <c r="E70" t="s">
+        <v>294</v>
+      </c>
+      <c r="R70" t="s">
+        <v>309</v>
+      </c>
+      <c r="S70" t="s">
+        <v>295</v>
+      </c>
+      <c r="U70" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="R70" t="s">
-        <v>311</v>
-      </c>
-      <c r="S70" t="s">
+      <c r="V70" t="s">
         <v>297</v>
-      </c>
-      <c r="U70" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="V70" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B71" s="2">
         <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D71">
         <v>2018</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="R71" t="s">
+        <v>310</v>
+      </c>
+      <c r="S71" t="s">
+        <v>300</v>
+      </c>
+      <c r="U71" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="R71" t="s">
-        <v>312</v>
-      </c>
-      <c r="S71" t="s">
+      <c r="V71" t="s">
         <v>302</v>
-      </c>
-      <c r="U71" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="V71" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
@@ -4105,18 +4101,18 @@
         <v>2019</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="R72" t="s">
+        <v>305</v>
+      </c>
+      <c r="S72" t="s">
         <v>306</v>
-      </c>
-      <c r="R72" t="s">
-        <v>307</v>
-      </c>
-      <c r="S72" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B73" s="2">
         <v>2</v>
@@ -4128,15 +4124,15 @@
         <v>2019</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="R73" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:K6">
-    <sortCondition ref="B2:B6"/>
+  <sortState ref="B3:K7">
+    <sortCondition ref="B3:B7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC24F077-D1E9-2B4E-9CA6-02DE7A2E03FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67B1CDB-26CF-B348-AC76-0E113D974DC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="1980" windowWidth="33020" windowHeight="17340" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
+    <workbookView xWindow="9320" yWindow="3760" windowWidth="33020" windowHeight="17340" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="344">
   <si>
     <t>authors</t>
   </si>
@@ -57,9 +57,6 @@
     <t>School Psychology</t>
   </si>
   <si>
-    <t>*in press*</t>
-  </si>
-  <si>
     <t>Journal of Child &amp; Adolescent Trauma</t>
   </si>
   <si>
@@ -286,9 +283,6 @@
   </si>
   <si>
     <t>book-chapter</t>
-  </si>
-  <si>
-    <t>*forthcoming*</t>
   </si>
   <si>
     <t>Making data science “count”: Data science and Learning, Design, and Technology research. In E. Romero-Hall (Ed.)</t>
@@ -905,9 +899,6 @@
     <t xml:space="preserve">https://github.com/datalorax/equatiomatic </t>
   </si>
   <si>
-    <t>Anderson, D., Heiss, A., &amp; Rosenberg, J. M.</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://github.com/datalorax/slidex </t>
   </si>
   <si>
@@ -1007,9 +998,6 @@
     <t>https://www.tandfonline.com/doi/full/10.1080/09243453.2019.1618349</t>
   </si>
   <si>
-    <t>Barrett, T. S., &amp; Anderson, D.</t>
-  </si>
-  <si>
     <t>biosketchr: Rmarkdown for biosketches</t>
   </si>
   <si>
@@ -1020,13 +1008,100 @@
   </si>
   <si>
     <t>Rosenberg, J, Beymer, P. N., Anderson, D., van Lissa, C.J., and Schmidt, J. A.</t>
+  </si>
+  <si>
+    <t>Nese, J.F. T., Anderson, D., Kamata, A.</t>
+  </si>
+  <si>
+    <t>April, 2020</t>
+  </si>
+  <si>
+    <t>https://convention2.allacademic.com/one/aera/aera20/index.php?program_focus=view_paper&amp;selected_paper_id=1576915&amp;cmd=online_program_direct_link&amp;sub_action=online_program</t>
+  </si>
+  <si>
+    <t>https://convention2.allacademic.com/one/aera/aera20/index.php?program_focus=view_paper&amp;selected_paper_id=1585433&amp;cmd=online_program_direct_link&amp;sub_action=online_program</t>
+  </si>
+  <si>
+    <t>Anderson, D. Rosenberg, J. M. Sáez, L., &amp; Seeley, J. R.</t>
+  </si>
+  <si>
+    <t>September, 2020</t>
+  </si>
+  <si>
+    <t>Using extreme gradient boosting to estimate community effects on school readiness</t>
+  </si>
+  <si>
+    <t>https://oregon-k-entry.netlify.app/pre-k-dashboard/</t>
+  </si>
+  <si>
+    <t>Conference on Educational Data Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pedagogical framework for deeloping computational social scientists in educational research </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preliminary consequential validity evidence for a computerized oral reading fluency assessment </t>
+  </si>
+  <si>
+    <t>*(conference canceled)*</t>
+  </si>
+  <si>
+    <t>hosted virtually</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=equatiomatic</t>
+  </si>
+  <si>
+    <t>in-review</t>
+  </si>
+  <si>
+    <t>10.1111/emip.12314</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/abs/10.1111/emip.12314</t>
+  </si>
+  <si>
+    <t>https://github.com/datalorax/text-analysis-content-validity/blob/master/text-analysis-content-validity.pdf</t>
+  </si>
+  <si>
+    <t>173-184</t>
+  </si>
+  <si>
+    <t>541-554</t>
+  </si>
+  <si>
+    <t>97-109</t>
+  </si>
+  <si>
+    <t>Advancing new methods for understanding public sentiment  about educational reforms: The case of Twitter and the Next  Generation Science Standards </t>
+  </si>
+  <si>
+    <t>under review</t>
+  </si>
+  <si>
+    <t>Rosenberg, J. M., Borchers, C., Dyer, E. B., Anderson, D., and Fischer, C.</t>
+  </si>
+  <si>
+    <t>Anderson, D., Gau, J. M., Beck, L., Unruh, D., Gioia, G., McCart, M., Davies, S. C., Slocumb, J., Gomez, D., and Glang, A. E.</t>
+  </si>
+  <si>
+    <t>Management of return to school following brain injury: An evaluation model</t>
+  </si>
+  <si>
+    <t>10.4324/9780429260919</t>
+  </si>
+  <si>
+    <t>Barrett, T. S. &amp; Anderson, D.</t>
+  </si>
+  <si>
+    <t>Anderson, D. and Heiss, A.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1079,6 +1154,20 @@
       <name val="Times"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2B2B2B"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1097,10 +1186,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1112,8 +1202,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1426,11 +1519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1443,10 +1536,10 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1467,7 +1560,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>6</v>
@@ -1476,101 +1569,111 @@
         <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2020</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="R2" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="S2" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
         <v>2019</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
+        <v>13</v>
+      </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="J3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1583,7 +1686,7 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -1595,23 +1698,23 @@
         <v>2019</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2">
         <v>30</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1624,31 +1727,35 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>2019</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>34</v>
+      </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="J5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1661,31 +1768,35 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2">
         <v>2019</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="G6" s="2">
+        <v>34</v>
+      </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="J6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1698,35 +1809,35 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>2019</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2">
         <v>42</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1739,22 +1850,22 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D8" s="2">
         <v>2018</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="G8" s="2">
         <v>3</v>
@@ -1766,7 +1877,7 @@
         <v>978</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1776,41 +1887,41 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2">
         <v>2018</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2">
         <v>33</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="K9" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1823,35 +1934,35 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2">
         <v>2017</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="2">
         <v>30</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1860,38 +1971,38 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2">
         <v>2017</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="G11" s="2">
         <v>2</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1901,41 +2012,41 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2">
         <v>2016</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="G12" s="2">
         <v>38</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="K12" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1948,35 +2059,35 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="2">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2">
         <v>2016</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="G13" s="2">
         <v>49</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="K13" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1989,35 +2100,35 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2">
         <v>2015</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="2">
         <v>49</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="K14" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2026,41 +2137,41 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2">
         <v>2015</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="G15" s="2">
         <v>34</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="K15" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2069,35 +2180,35 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S15" s="2"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2">
         <v>2013</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G16" s="2">
         <v>4</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -2108,41 +2219,41 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S16" s="2"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="2">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2">
         <v>2012</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="G17" s="2">
         <v>25</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="K17" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2155,35 +2266,35 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="2">
         <v>2011</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="G18" s="2">
         <v>16</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="K18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2192,79 +2303,65 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S18" s="2"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="2" t="s">
-        <v>86</v>
+        <v>329</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>174</v>
+        <v>339</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>87</v>
+        <v>337</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>88</v>
+        <v>340</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="2" t="s">
-        <v>273</v>
-      </c>
+      <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>329</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2011</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>245</v>
+        <v>338</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -2274,350 +2371,330 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>98</v>
+        <v>172</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2020</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="T21" t="s">
-        <v>103</v>
-      </c>
+      <c r="J21" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="S21" s="2"/>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B22" s="2">
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>106</v>
+        <v>173</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2011</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q22" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>114</v>
+        <v>319</v>
+      </c>
+      <c r="D23" t="s">
+        <v>320</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O23" s="2" t="b">
+        <v>321</v>
+      </c>
+      <c r="K23" t="s">
+        <v>322</v>
+      </c>
+      <c r="N23" t="s">
+        <v>323</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q23" t="b">
         <v>0</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
       <c r="T23" t="s">
-        <v>112</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>118</v>
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>316</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O24" s="2" t="b">
+        <v>324</v>
+      </c>
+      <c r="K24" t="s">
+        <v>318</v>
+      </c>
+      <c r="N24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O24" t="b">
         <v>1</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="S24" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B25" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>119</v>
+        <v>315</v>
+      </c>
+      <c r="D25" t="s">
+        <v>316</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O25" s="2" t="b">
+        <v>325</v>
+      </c>
+      <c r="K25" t="s">
+        <v>317</v>
+      </c>
+      <c r="N25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O25" t="b">
         <v>0</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B26" s="2">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="K26" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O26" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="2" t="b">
         <v>1</v>
       </c>
       <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
+      <c r="S26" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="T26" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B27" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="K27" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="O27" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="Q27" s="2" t="b">
         <v>1</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
+      <c r="T27" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B28" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="O28" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="Q28" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
+      <c r="T28" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B29" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2628,35 +2705,37 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="O29" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="Q29" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R29" s="2"/>
+      <c r="R29" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="S29" s="2"/>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B30" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2667,35 +2746,35 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="O30" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="Q30" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B31" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2706,13 +2785,13 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O31" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="Q31" s="2" t="b">
         <v>1</v>
@@ -2722,19 +2801,19 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B32" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2745,13 +2824,13 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="O32" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q32" s="2" t="b">
         <v>1</v>
@@ -2761,19 +2840,19 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B33" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2784,35 +2863,35 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="O33" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="Q33" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B34" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2823,35 +2902,35 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="O34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q34" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q34" s="2" t="b">
-        <v>1</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B35" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2862,35 +2941,35 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="O35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q35" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q35" s="2" t="b">
-        <v>1</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B36" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2901,13 +2980,13 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="O36" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q36" s="2" t="b">
         <v>1</v>
@@ -2917,19 +2996,19 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B37" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2940,13 +3019,13 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O37" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="Q37" s="2" t="b">
         <v>1</v>
@@ -2956,19 +3035,19 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B38" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>189</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2979,13 +3058,13 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O38" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="Q38" s="2" t="b">
         <v>1</v>
@@ -2995,19 +3074,19 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B39" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -3018,13 +3097,13 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O39" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="Q39" s="2" t="b">
         <v>1</v>
@@ -3034,19 +3113,19 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B40" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -3057,13 +3136,13 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="O40" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="Q40" s="2" t="b">
         <v>1</v>
@@ -3073,19 +3152,19 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -3096,13 +3175,13 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="O41" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="Q41" s="2" t="b">
         <v>1</v>
@@ -3112,19 +3191,19 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3135,35 +3214,35 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="O42" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="Q42" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>187</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3174,13 +3253,13 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="O43" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="Q43" s="2" t="b">
         <v>1</v>
@@ -3190,19 +3269,19 @@
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3213,35 +3292,35 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O44" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="Q44" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3252,13 +3331,13 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="O45" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="Q45" s="2" t="b">
         <v>1</v>
@@ -3268,19 +3347,19 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3291,13 +3370,13 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="O46" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="Q46" s="2" t="b">
         <v>1</v>
@@ -3305,21 +3384,21 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" ht="18">
+    <row r="47" spans="1:19">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3330,35 +3409,35 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="O47" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="Q47" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" ht="18">
+    <row r="48" spans="1:19">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>254</v>
+        <v>158</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3369,13 +3448,13 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="O48" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="Q48" s="2" t="b">
         <v>1</v>
@@ -3383,21 +3462,21 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:19">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>192</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3408,35 +3487,35 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="O49" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="Q49" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:19">
       <c r="A50" s="2" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D50" s="2">
-        <v>2014</v>
+        <v>193</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3445,33 +3524,37 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R50" s="2"/>
       <c r="S50" s="2"/>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:19">
       <c r="A51" s="2" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="2">
-        <v>2013</v>
+        <v>194</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3480,33 +3563,37 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R51" s="2"/>
       <c r="S51" s="2"/>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:19" ht="18">
       <c r="A52" s="2" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2">
-        <v>3</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D52" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>246</v>
+        <v>30</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3515,33 +3602,37 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2" t="s">
-        <v>239</v>
-      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R52" s="2"/>
       <c r="S52" s="2"/>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:19" ht="18">
       <c r="A53" s="2" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2">
-        <v>4</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D53" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>247</v>
+        <v>31</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3550,33 +3641,37 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2" t="s">
-        <v>241</v>
-      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R53" s="2"/>
       <c r="S53" s="2"/>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:19">
       <c r="A54" s="2" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2">
-        <v>5</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D54" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>228</v>
+        <v>32</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -3585,33 +3680,37 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R54" s="2"/>
       <c r="S54" s="2"/>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:19">
       <c r="A55" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B55" s="2">
-        <v>6</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>244</v>
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="D55" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>248</v>
+        <v>2014</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -3620,33 +3719,33 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="8" t="s">
-        <v>226</v>
+      <c r="M55" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="S55" s="2"/>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:19">
       <c r="A56" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B56" s="2">
-        <v>7</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>230</v>
+        <v>2</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D56" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>249</v>
+        <v>2013</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -3655,33 +3754,33 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="8" t="s">
-        <v>226</v>
+      <c r="M56" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="S56" s="2"/>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:19">
       <c r="A57" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B57" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D57" s="2">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -3691,32 +3790,32 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="S57" s="2"/>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:19">
       <c r="A58" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B58" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D58" s="2">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -3726,32 +3825,32 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="S58" s="2"/>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:19">
       <c r="A59" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B59" s="2">
-        <v>10</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>236</v>
+        <v>5</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="D59" s="2">
         <v>2010</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>252</v>
+      <c r="E59" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -3761,379 +3860,560 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="S59" s="2"/>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:19">
       <c r="A60" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B60" s="2">
+        <v>6</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="S60" s="2"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" s="2">
+        <v>7</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S61" s="2"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B62" s="2">
+        <v>8</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="S62" s="2"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B63" s="2">
+        <v>9</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S63" s="2"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" s="2">
+        <v>10</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D64" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="S64" s="2"/>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B60" s="2">
-        <v>1</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" t="s">
-        <v>256</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="N65" t="s">
+        <v>260</v>
+      </c>
+      <c r="P65" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q65" t="b">
+        <v>0</v>
+      </c>
+      <c r="T65" t="s">
         <v>257</v>
-      </c>
-      <c r="N60" t="s">
-        <v>262</v>
-      </c>
-      <c r="P60" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q60" t="b">
-        <v>0</v>
-      </c>
-      <c r="T60" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
-      <c r="A61" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B61" s="2">
-        <v>2</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" t="s">
-        <v>260</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="N61" t="s">
-        <v>263</v>
-      </c>
-      <c r="P61" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q61" t="b">
-        <v>1</v>
-      </c>
-      <c r="T61" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
-      <c r="A62" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B62" s="2">
-        <v>3</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" t="s">
-        <v>114</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="N62" t="s">
-        <v>267</v>
-      </c>
-      <c r="P62" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q62" t="b">
-        <v>0</v>
-      </c>
-      <c r="T62" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
-      <c r="A63" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B63" s="2">
-        <v>4</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" t="s">
-        <v>269</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="N63" t="s">
-        <v>263</v>
-      </c>
-      <c r="P63" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q63" t="b">
-        <v>1</v>
-      </c>
-      <c r="T63" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
-      <c r="A64" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B64" s="2">
-        <v>1</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="D64">
-        <v>2019</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="S64" t="s">
-        <v>316</v>
-      </c>
-      <c r="U64" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" s="10" customFormat="1">
-      <c r="A65" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B65" s="2">
-        <v>2</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D65" s="10">
-        <v>2019</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="S65" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="2" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B66" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D66">
-        <v>2018</v>
+      <c r="D66" t="s">
+        <v>258</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="S66" t="s">
-        <v>281</v>
-      </c>
-      <c r="U66" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
+      </c>
+      <c r="N66" t="s">
+        <v>261</v>
+      </c>
+      <c r="P66" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q66" t="b">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="2" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B67" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D67">
-        <v>2018</v>
+      <c r="D67" t="s">
+        <v>112</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="S67" t="s">
-        <v>285</v>
-      </c>
-      <c r="U67" t="s">
-        <v>284</v>
-      </c>
-      <c r="V67" t="s">
-        <v>283</v>
+        <v>264</v>
+      </c>
+      <c r="N67" t="s">
+        <v>265</v>
+      </c>
+      <c r="P67" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q67" t="b">
+        <v>0</v>
+      </c>
+      <c r="T67" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="2" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B68" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D68">
-        <v>2016</v>
+      <c r="D68" t="s">
+        <v>267</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="S68" t="s">
-        <v>289</v>
-      </c>
-      <c r="U68" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22">
+        <v>268</v>
+      </c>
+      <c r="N68" t="s">
+        <v>261</v>
+      </c>
+      <c r="P68" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q68" t="b">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" s="10" customFormat="1">
       <c r="A69" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B69" s="2">
-        <v>6</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69">
-        <v>2015</v>
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D69" s="10">
+        <v>2020</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="S69" t="s">
-        <v>291</v>
-      </c>
-      <c r="U69" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
+      </c>
+      <c r="S69" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="U69" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V69" s="10" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="2" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="B70" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="D70">
-        <v>2018</v>
-      </c>
-      <c r="E70" t="s">
-        <v>294</v>
-      </c>
-      <c r="R70" t="s">
-        <v>309</v>
+        <v>2019</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="S70" t="s">
-        <v>295</v>
-      </c>
-      <c r="U70" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="V70" t="s">
-        <v>297</v>
+        <v>312</v>
+      </c>
+      <c r="U70" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="2" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="B71" s="2">
-        <v>2</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>298</v>
+        <v>3</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D71">
         <v>2018</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="R71" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="S71" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="V71" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="2" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="B72" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D72">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="R72" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="S72" t="s">
-        <v>306</v>
+        <v>282</v>
+      </c>
+      <c r="U72" t="s">
+        <v>281</v>
+      </c>
+      <c r="V72" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="2" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="B73" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D73">
+        <v>2016</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="S73" t="s">
+        <v>286</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B74" s="2">
+        <v>6</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74">
+        <v>2015</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="S74" t="s">
+        <v>288</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D75">
+        <v>2018</v>
+      </c>
+      <c r="E75" t="s">
+        <v>291</v>
+      </c>
+      <c r="R75" t="s">
+        <v>306</v>
+      </c>
+      <c r="S75" t="s">
+        <v>292</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="V75" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D76">
+        <v>2018</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="R76" t="s">
+        <v>307</v>
+      </c>
+      <c r="S76" t="s">
+        <v>297</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="V76" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77">
         <v>2019</v>
       </c>
-      <c r="E73" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="R73" t="s">
-        <v>308</v>
+      <c r="E77" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="R77" t="s">
+        <v>302</v>
+      </c>
+      <c r="S77" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78">
+        <v>2019</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="R78" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B3:K7">
     <sortCondition ref="B3:B7"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="J21" r:id="rId1" display="https://doi.org/10.4324/9780429260919" xr:uid="{1DDAA8A2-3DE9-D743-A79F-D2981E5790DA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67B1CDB-26CF-B348-AC76-0E113D974DC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259B6EC6-3A2F-594D-8A69-14BD7248F89A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9320" yWindow="3760" windowWidth="33020" windowHeight="17340" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="346">
   <si>
     <t>authors</t>
   </si>
@@ -1095,6 +1095,12 @@
   </si>
   <si>
     <t>Anderson, D. and Heiss, A.</t>
+  </si>
+  <si>
+    <t>*in press*</t>
+  </si>
+  <si>
+    <t>International Journal of Educational Research</t>
   </si>
 </sst>
 </file>
@@ -1522,8 +1528,8 @@
   <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1610,38 +1616,30 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2020</v>
+        <v>339</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>340</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>345</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>331</v>
-      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>217</v>
-      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
@@ -1651,29 +1649,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="D3" s="2">
-        <v>2019</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>79</v>
+        <v>2020</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2">
-        <v>13</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>81</v>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1681,8 +1675,12 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="R3" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="2" t="s">
@@ -1692,29 +1690,29 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>2019</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>197</v>
+      <c r="E4" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>333</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>310</v>
+        <v>82</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1733,29 +1731,29 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2">
         <v>2019</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>199</v>
+        <v>310</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1774,29 +1772,29 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
         <v>2019</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2">
         <v>34</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1815,29 +1813,29 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
         <v>2019</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="3" t="s">
-        <v>19</v>
+      <c r="I7" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1856,39 +1854,37 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>314</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G8" s="2">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>30</v>
-      </c>
-      <c r="I8" s="2">
-        <v>978</v>
+        <v>42</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2" t="s">
-        <v>202</v>
-      </c>
+      <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:22">
@@ -1899,37 +1895,39 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>314</v>
       </c>
       <c r="D9" s="2">
         <v>2018</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
         <v>30</v>
       </c>
-      <c r="G9" s="2">
-        <v>33</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>31</v>
+      <c r="I9" s="2">
+        <v>978</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>203</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:22">
@@ -1940,29 +1938,29 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2">
         <v>33</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="2">
-        <v>30</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1970,9 +1968,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:22">
@@ -1983,28 +1979,30 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2">
         <v>2017</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2012,7 +2010,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S11" s="2"/>
     </row>
@@ -2024,37 +2022,37 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="I12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="R12" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:22">
@@ -2065,29 +2063,29 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2">
         <v>2016</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G13" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2106,13 +2104,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>48</v>
@@ -2121,14 +2119,14 @@
         <v>49</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="3" t="s">
-        <v>52</v>
+      <c r="I14" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2136,9 +2134,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2" t="s">
-        <v>210</v>
-      </c>
+      <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:22">
@@ -2149,29 +2145,29 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2">
         <v>2015</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G15" s="2">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
-        <v>56</v>
+      <c r="I15" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2180,7 +2176,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S15" s="2"/>
     </row>
@@ -2192,26 +2188,30 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G16" s="2">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2219,7 +2219,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S16" s="2"/>
     </row>
@@ -2231,37 +2231,35 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G17" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>214</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="R17" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="S17" s="2"/>
     </row>
     <row r="18" spans="1:20">
@@ -2272,29 +2270,29 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G18" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2302,40 +2300,50 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="2" t="s">
-        <v>215</v>
-      </c>
+      <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="2" t="s">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>337</v>
+        <v>76</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2011</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="2">
+        <v>16</v>
+      </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="R19" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:20">
@@ -2343,7 +2351,7 @@
         <v>329</v>
       </c>
       <c r="B20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>338</v>
@@ -4408,8 +4416,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B3:K7">
-    <sortCondition ref="B3:B7"/>
+  <sortState ref="B4:K8">
+    <sortCondition ref="B4:B8"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="J21" r:id="rId1" display="https://doi.org/10.4324/9780429260919" xr:uid="{1DDAA8A2-3DE9-D743-A79F-D2981E5790DA}"/>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259B6EC6-3A2F-594D-8A69-14BD7248F89A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CA4E1C-8AB5-1844-9CDE-53B75B93CAAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9320" yWindow="3760" windowWidth="33020" windowHeight="17340" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
+    <workbookView xWindow="35040" yWindow="2900" windowWidth="49780" windowHeight="21660" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="348">
   <si>
     <t>authors</t>
   </si>
@@ -1052,9 +1052,6 @@
     <t>https://cran.r-project.org/package=equatiomatic</t>
   </si>
   <si>
-    <t>in-review</t>
-  </si>
-  <si>
     <t>10.1111/emip.12314</t>
   </si>
   <si>
@@ -1073,12 +1070,6 @@
     <t>97-109</t>
   </si>
   <si>
-    <t>Advancing new methods for understanding public sentiment  about educational reforms: The case of Twitter and the Next  Generation Science Standards </t>
-  </si>
-  <si>
-    <t>under review</t>
-  </si>
-  <si>
     <t>Rosenberg, J. M., Borchers, C., Dyer, E. B., Anderson, D., and Fischer, C.</t>
   </si>
   <si>
@@ -1101,6 +1092,21 @@
   </si>
   <si>
     <t>International Journal of Educational Research</t>
+  </si>
+  <si>
+    <t>Understanding public sentiment about educational reforms: The Next Generation Science Standards on Twitter</t>
+  </si>
+  <si>
+    <t>AERA Open</t>
+  </si>
+  <si>
+    <t>Rosenberg, J. M., Borchers, C., Gibbons, B., Dyer, E. D., Anderson, D. A., &amp; Fischer, C.</t>
+  </si>
+  <si>
+    <t>Don’t worry, be happy: A sentment analysis of the #NGSSchat Twitter Symposium community</t>
+  </si>
+  <si>
+    <t>April, 2021</t>
   </si>
 </sst>
 </file>
@@ -1161,18 +1167,18 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF2B2B2B"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Optima"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1194,7 +1200,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1208,8 +1214,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1525,11 +1531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="168" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1616,16 +1622,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1640,47 +1646,45 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="10">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2020</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>217</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="2" t="s">
@@ -1690,29 +1694,25 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="D4" s="2">
-        <v>2019</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>79</v>
+        <v>2020</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2">
-        <v>13</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>81</v>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1720,40 +1720,47 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="R4" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="10">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>2019</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>197</v>
+      <c r="E5" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>332</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>310</v>
+        <v>82</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1763,6 +1770,9 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="2" t="s">
@@ -1772,29 +1782,29 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
         <v>2019</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>199</v>
+        <v>310</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1804,38 +1814,41 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="10">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>2019</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2">
         <v>34</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1845,6 +1858,9 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="2" t="s">
@@ -1854,29 +1870,29 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <v>2019</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="3" t="s">
-        <v>19</v>
+      <c r="I8" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1886,49 +1902,53 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="10">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>314</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G9" s="2">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2">
-        <v>30</v>
-      </c>
-      <c r="I9" s="2">
-        <v>978</v>
+        <v>42</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2" t="s">
-        <v>202</v>
-      </c>
+      <c r="R9" s="2"/>
       <c r="S9" s="2"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="2" t="s">
@@ -1938,70 +1958,75 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>314</v>
       </c>
       <c r="D10" s="2">
         <v>2018</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2">
         <v>30</v>
       </c>
-      <c r="G10" s="2">
-        <v>33</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>31</v>
+      <c r="I10" s="2">
+        <v>978</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>203</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="S10" s="2"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="10">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="2">
         <v>33</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="2">
-        <v>30</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2009,10 +2034,11 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="R11" s="2"/>
       <c r="S11" s="2"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="2" t="s">
@@ -2022,28 +2048,30 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2">
         <v>2017</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2051,50 +2079,56 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S12" s="2"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="10">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G13" s="2">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="I13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="R13" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="S13" s="2"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="2" t="s">
@@ -2104,29 +2138,29 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2">
         <v>2016</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G14" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2136,22 +2170,25 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="10">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>48</v>
@@ -2160,14 +2197,14 @@
         <v>49</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="3" t="s">
-        <v>52</v>
+      <c r="I15" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2175,10 +2212,11 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="2" t="s">
-        <v>210</v>
-      </c>
+      <c r="R15" s="2"/>
       <c r="S15" s="2"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="2" t="s">
@@ -2188,29 +2226,29 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2">
         <v>2015</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G16" s="2">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
-        <v>56</v>
+      <c r="I16" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2219,38 +2257,45 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="10">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2258,11 +2303,14 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="2" t="s">
         <v>78</v>
       </c>
@@ -2270,70 +2318,71 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G18" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>214</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="R18" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="10">
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G19" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2341,43 +2390,59 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="2" t="s">
-        <v>215</v>
-      </c>
+      <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="2" t="s">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="B20" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="2">
+        <v>16</v>
+      </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="R20" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="2" t="s">
         <v>85</v>
       </c>
@@ -2397,8 +2462,8 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="12" t="s">
-        <v>341</v>
+      <c r="J21" s="11" t="s">
+        <v>338</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>308</v>
@@ -2417,8 +2482,11 @@
         <v>271</v>
       </c>
       <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="2" t="s">
         <v>85</v>
       </c>
@@ -2454,43 +2522,53 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D23" t="s">
-        <v>320</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K23" t="s">
-        <v>322</v>
-      </c>
-      <c r="N23" t="s">
-        <v>323</v>
-      </c>
-      <c r="O23" t="b">
+      <c r="C23" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="O23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q23" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="P23" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q23" t="b">
-        <v>0</v>
-      </c>
-      <c r="T23" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="2" t="s">
         <v>95</v>
       </c>
@@ -2498,31 +2576,45 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>316</v>
+        <v>319</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>320</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="K24" t="s">
-        <v>318</v>
-      </c>
-      <c r="N24" t="s">
-        <v>141</v>
-      </c>
-      <c r="O24" t="b">
+        <v>321</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="O24" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="P24" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="P24" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="2" t="s">
         <v>95</v>
       </c>
@@ -2530,31 +2622,43 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>316</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K25" t="s">
-        <v>317</v>
-      </c>
-      <c r="N25" t="s">
+        <v>324</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="O25" t="b">
-        <v>0</v>
+      <c r="O25" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="Q25" t="b">
+      <c r="Q25" s="10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="2" t="s">
         <v>95</v>
       </c>
@@ -2562,45 +2666,43 @@
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>96</v>
+        <v>315</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>316</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="O26" s="2" t="b">
+        <v>325</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="O26" s="10" t="b">
         <v>0</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="2" t="b">
+        <v>326</v>
+      </c>
+      <c r="Q26" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="T26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="2" t="s">
         <v>95</v>
       </c>
@@ -2608,43 +2710,47 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2" t="s">
-        <v>106</v>
+      <c r="K27" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O27" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="2" t="b">
         <v>1</v>
       </c>
       <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="S27" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="T27" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
@@ -2652,13 +2758,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2666,29 +2772,31 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="O28" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q28" s="2" t="b">
         <v>1</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="T28" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="2" t="s">
         <v>95</v>
       </c>
@@ -2696,40 +2804,45 @@
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="K29" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="O29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q29" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="P29" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>272</v>
-      </c>
+      <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="T29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="2" t="s">
         <v>95</v>
       </c>
@@ -2737,13 +2850,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2754,21 +2867,26 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="O30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q30" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R30" s="2"/>
+      <c r="R30" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="S30" s="2"/>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -2776,13 +2894,13 @@
         <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2806,8 +2924,11 @@
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="2" t="s">
         <v>95</v>
       </c>
@@ -2815,13 +2936,13 @@
         <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2832,21 +2953,24 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="O32" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Q32" s="2" t="b">
         <v>1</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="2" t="s">
         <v>95</v>
       </c>
@@ -2854,13 +2978,13 @@
         <v>11</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2871,21 +2995,24 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q33" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q33" s="2" t="b">
-        <v>0</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="2" t="s">
         <v>95</v>
       </c>
@@ -2893,13 +3020,13 @@
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2910,21 +3037,24 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O34" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q34" s="2" t="b">
         <v>0</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="2" t="s">
         <v>95</v>
       </c>
@@ -2932,13 +3062,13 @@
         <v>13</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2949,21 +3079,24 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O35" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="Q35" s="2" t="b">
         <v>0</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="2" t="s">
         <v>95</v>
       </c>
@@ -2971,13 +3104,13 @@
         <v>14</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2988,21 +3121,24 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="O36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q36" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q36" s="2" t="b">
-        <v>1</v>
       </c>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="2" t="s">
         <v>95</v>
       </c>
@@ -3010,13 +3146,13 @@
         <v>15</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -3033,15 +3169,18 @@
         <v>0</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="Q37" s="2" t="b">
         <v>1</v>
       </c>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="2" t="s">
         <v>95</v>
       </c>
@@ -3049,13 +3188,13 @@
         <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -3066,10 +3205,10 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="O38" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>139</v>
@@ -3079,8 +3218,11 @@
       </c>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="2" t="s">
         <v>95</v>
       </c>
@@ -3088,13 +3230,13 @@
         <v>17</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>183</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -3108,7 +3250,7 @@
         <v>141</v>
       </c>
       <c r="O39" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>139</v>
@@ -3118,8 +3260,11 @@
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="2" t="s">
         <v>95</v>
       </c>
@@ -3127,13 +3272,13 @@
         <v>18</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -3157,8 +3302,11 @@
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="2" t="s">
         <v>95</v>
       </c>
@@ -3166,13 +3314,13 @@
         <v>19</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -3196,8 +3344,11 @@
       </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="2" t="s">
         <v>95</v>
       </c>
@@ -3205,13 +3356,13 @@
         <v>20</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3222,21 +3373,24 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="O42" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="Q42" s="2" t="b">
         <v>1</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="2" t="s">
         <v>95</v>
       </c>
@@ -3244,13 +3398,13 @@
         <v>21</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3261,7 +3415,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="O43" s="2" t="b">
         <v>0</v>
@@ -3274,8 +3428,11 @@
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="2" t="s">
         <v>95</v>
       </c>
@@ -3283,13 +3440,13 @@
         <v>22</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3313,8 +3470,11 @@
       </c>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="2" t="s">
         <v>95</v>
       </c>
@@ -3322,13 +3482,13 @@
         <v>23</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3339,7 +3499,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="O45" s="2" t="b">
         <v>0</v>
@@ -3352,8 +3512,11 @@
       </c>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="2" t="s">
         <v>95</v>
       </c>
@@ -3361,13 +3524,13 @@
         <v>24</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3378,21 +3541,24 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="O46" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="Q46" s="2" t="b">
         <v>1</v>
       </c>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="2" t="s">
         <v>95</v>
       </c>
@@ -3400,13 +3566,13 @@
         <v>25</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3417,21 +3583,24 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="O47" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q47" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
@@ -3439,13 +3608,13 @@
         <v>26</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3456,21 +3625,24 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O48" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q48" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="2" t="s">
         <v>95</v>
       </c>
@@ -3478,13 +3650,13 @@
         <v>27</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>192</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3495,21 +3667,24 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="O49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q49" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q49" s="2" t="b">
-        <v>0</v>
       </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
@@ -3517,13 +3692,13 @@
         <v>28</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3534,21 +3709,24 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="O50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q50" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q50" s="2" t="b">
-        <v>1</v>
       </c>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -3556,13 +3734,13 @@
         <v>29</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3576,7 +3754,7 @@
         <v>141</v>
       </c>
       <c r="O51" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>165</v>
@@ -3586,8 +3764,11 @@
       </c>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
-    </row>
-    <row r="52" spans="1:19" ht="18">
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -3595,13 +3776,13 @@
         <v>30</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>251</v>
+        <v>166</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3612,21 +3793,24 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="O52" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q52" s="2" t="b">
         <v>1</v>
       </c>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
-    </row>
-    <row r="53" spans="1:19" ht="18">
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+    </row>
+    <row r="53" spans="1:22" ht="18">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -3634,13 +3818,13 @@
         <v>31</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>167</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3651,7 +3835,7 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="O53" s="2" t="b">
         <v>0</v>
@@ -3664,8 +3848,11 @@
       </c>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+    </row>
+    <row r="54" spans="1:22" ht="18">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -3673,13 +3860,13 @@
         <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>167</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -3693,7 +3880,7 @@
         <v>141</v>
       </c>
       <c r="O54" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>169</v>
@@ -3703,22 +3890,25 @@
       </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="2" t="s">
-        <v>218</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D55" s="2">
-        <v>2014</v>
+        <v>8</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -3727,33 +3917,40 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R55" s="2"/>
       <c r="S55" s="2"/>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B56" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="D56" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -3763,32 +3960,35 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S56" s="2"/>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B57" s="2">
-        <v>3</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>236</v>
+        <v>2</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D57" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>244</v>
+        <v>2013</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -3797,33 +3997,36 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="8" t="s">
-        <v>224</v>
+      <c r="M57" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="S57" s="2"/>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B58" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D58" s="2">
         <v>2012</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -3840,25 +4043,28 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="S58" s="2"/>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B59" s="2">
-        <v>5</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>241</v>
+        <v>4</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="D59" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>226</v>
+        <v>2012</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -3875,25 +4081,28 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="S59" s="2"/>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B60" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D60" s="2">
         <v>2010</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -3910,25 +4119,28 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="S60" s="2"/>
-    </row>
-    <row r="61" spans="1:19">
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B61" s="2">
-        <v>7</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>228</v>
+        <v>6</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="D61" s="2">
         <v>2010</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>247</v>
+      <c r="E61" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -3945,25 +4157,28 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S61" s="2"/>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B62" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D62" s="2">
         <v>2010</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -3980,25 +4195,28 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S62" s="2"/>
-    </row>
-    <row r="63" spans="1:19">
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B63" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D63" s="2">
         <v>2010</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -4015,25 +4233,28 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S63" s="2"/>
-    </row>
-    <row r="64" spans="1:19">
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B64" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D64" s="2">
         <v>2010</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -4050,173 +4271,243 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S64" s="2"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="2" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="B65" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" t="s">
-        <v>254</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="N65" t="s">
-        <v>260</v>
-      </c>
-      <c r="P65" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q65" t="b">
-        <v>0</v>
-      </c>
-      <c r="T65" t="s">
-        <v>257</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="S65" s="2"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B66" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D66" t="s">
-        <v>258</v>
+      <c r="D66" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="N66" t="s">
-        <v>261</v>
-      </c>
-      <c r="P66" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q66" t="b">
-        <v>1</v>
-      </c>
-      <c r="T66" t="s">
-        <v>263</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q66" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B67" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D67" t="s">
-        <v>112</v>
+      <c r="D67" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="N67" t="s">
-        <v>265</v>
-      </c>
-      <c r="P67" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q67" t="b">
-        <v>0</v>
-      </c>
-      <c r="T67" t="s">
-        <v>266</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q67" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B68" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q68" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B69" s="2">
+        <v>4</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="N68" t="s">
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="P68" t="s">
+      <c r="O69" s="10"/>
+      <c r="P69" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="Q68" t="b">
+      <c r="Q69" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="T68" t="s">
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" s="10" customFormat="1">
-      <c r="A69" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B69" s="2">
-        <v>1</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D69" s="10">
-        <v>2020</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="S69" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="U69" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="V69" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22">
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+    </row>
+    <row r="70" spans="1:22" s="10" customFormat="1">
       <c r="A70" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B70" s="2">
-        <v>2</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="D70">
-        <v>2019</v>
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D70" s="10">
+        <v>2020</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="S70" t="s">
-        <v>312</v>
-      </c>
-      <c r="U70" t="s">
-        <v>313</v>
+        <v>274</v>
+      </c>
+      <c r="S70" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="U70" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V70" s="10" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -4224,71 +4515,115 @@
         <v>273</v>
       </c>
       <c r="B71" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71">
-        <v>2018</v>
+        <v>339</v>
+      </c>
+      <c r="D71" s="10">
+        <v>2019</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="S71" t="s">
-        <v>278</v>
-      </c>
-      <c r="U71" s="1" t="s">
-        <v>276</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="V71" s="10"/>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B72" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="10">
         <v>2018</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="S72" t="s">
-        <v>282</v>
-      </c>
-      <c r="U72" t="s">
-        <v>281</v>
-      </c>
-      <c r="V72" t="s">
-        <v>280</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="T72" s="10"/>
+      <c r="U72" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="V72" s="10"/>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B73" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D73">
-        <v>2016</v>
+      <c r="D73" s="10">
+        <v>2018</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="S73" t="s">
-        <v>286</v>
-      </c>
-      <c r="U73" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="V73" s="10" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -4296,103 +4631,159 @@
         <v>273</v>
       </c>
       <c r="B74" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D74">
-        <v>2015</v>
+      <c r="D74" s="10">
+        <v>2016</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="S74" t="s">
-        <v>288</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="T74" s="10"/>
       <c r="U74" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="V74" s="10"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="2" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="B75" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D75">
-        <v>2018</v>
-      </c>
-      <c r="E75" t="s">
-        <v>291</v>
-      </c>
-      <c r="R75" t="s">
-        <v>306</v>
-      </c>
-      <c r="S75" t="s">
-        <v>292</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D75" s="10">
+        <v>2015</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="T75" s="10"/>
       <c r="U75" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="V75" t="s">
-        <v>294</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="V75" s="10"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B76" s="2">
-        <v>2</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" s="10">
         <v>2018</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="R76" t="s">
-        <v>307</v>
-      </c>
-      <c r="S76" t="s">
-        <v>297</v>
-      </c>
+      <c r="E76" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="S76" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="T76" s="10"/>
       <c r="U76" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="V76" t="s">
-        <v>299</v>
+        <v>293</v>
+      </c>
+      <c r="V76" s="10" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B77" s="2">
-        <v>1</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77">
-        <v>2019</v>
+        <v>2</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D77" s="10">
+        <v>2018</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="R77" t="s">
-        <v>302</v>
-      </c>
-      <c r="S77" t="s">
-        <v>303</v>
+        <v>296</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="S77" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="T77" s="10"/>
+      <c r="U77" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="V77" s="10" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -4400,24 +4791,78 @@
         <v>300</v>
       </c>
       <c r="B78" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="10">
         <v>2019</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="S78" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="10"/>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="10">
+        <v>2019</v>
+      </c>
+      <c r="E79" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="R78" t="s">
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10" t="s">
         <v>305</v>
       </c>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
     </row>
   </sheetData>
-  <sortState ref="B4:K8">
-    <sortCondition ref="B4:B8"/>
+  <sortState ref="B5:K9">
+    <sortCondition ref="B5:B9"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="J21" r:id="rId1" display="https://doi.org/10.4324/9780429260919" xr:uid="{1DDAA8A2-3DE9-D743-A79F-D2981E5790DA}"/>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CA4E1C-8AB5-1844-9CDE-53B75B93CAAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3369E773-72B7-5442-8972-3ADA7604AC4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="2900" windowWidth="49780" windowHeight="21660" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
+    <workbookView xWindow="19020" yWindow="2160" windowWidth="49780" windowHeight="21660" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="354">
   <si>
     <t>authors</t>
   </si>
@@ -1085,12 +1085,6 @@
     <t>Barrett, T. S. &amp; Anderson, D.</t>
   </si>
   <si>
-    <t>Anderson, D. and Heiss, A.</t>
-  </si>
-  <si>
-    <t>*in press*</t>
-  </si>
-  <si>
     <t>International Journal of Educational Research</t>
   </si>
   <si>
@@ -1107,6 +1101,30 @@
   </si>
   <si>
     <t>April, 2021</t>
+  </si>
+  <si>
+    <t>1-17</t>
+  </si>
+  <si>
+    <t>10.1177/23328584211024261</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/doi/pdf/10.1177/23328584211024261</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/doi/full/10.1177/23328584211024261</t>
+  </si>
+  <si>
+    <t>https://github.com/jrosen48/ngsschat-sentiment</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0883035521000434</t>
+  </si>
+  <si>
+    <t>10.1016/j.ijer.2021.101773</t>
+  </si>
+  <si>
+    <t>Anderson, D., Heiss, A., &amp; Sumners, J.</t>
   </si>
 </sst>
 </file>
@@ -1533,9 +1551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="168" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U71" sqref="U71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1624,20 +1642,26 @@
       <c r="C2" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>341</v>
+      <c r="D2" s="2">
+        <v>2021</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>337</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G2" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="G2" s="2">
+        <v>108</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1660,28 +1684,40 @@
       <c r="C3" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="10">
+        <v>2021</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="G3" s="10"/>
+        <v>342</v>
+      </c>
+      <c r="G3" s="10">
+        <v>7</v>
+      </c>
       <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="I3" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="K3" t="s">
+        <v>349</v>
+      </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
+      <c r="R3" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>350</v>
+      </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
@@ -2534,13 +2570,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>347</v>
-      </c>
       <c r="E23" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -4492,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="D70" s="10">
         <v>2020</v>
@@ -4504,7 +4540,7 @@
         <v>277</v>
       </c>
       <c r="U70" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="V70" s="10" t="s">
         <v>328</v>
